--- a/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-7-8.xlsx
+++ b/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-7-8.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\Aug2023_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB3B06-CCBF-43EE-9058-3DFD54A956D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="122">
   <si>
     <t>status</t>
   </si>
@@ -166,9 +160,24 @@
     <t>bat_e_terminal_revenue</t>
   </si>
   <si>
+    <t>load_bld_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_bld_error_max_pos</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_pos</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -220,29 +229,164 @@
     <t>08-05</t>
   </si>
   <si>
+    <t>08-12</t>
+  </si>
+  <si>
+    <t>08-19</t>
+  </si>
+  <si>
+    <t>08-26</t>
+  </si>
+  <si>
+    <t>09-02</t>
+  </si>
+  <si>
     <t>flex</t>
   </si>
   <si>
     <t>unif</t>
   </si>
   <si>
-    <t>08-12</t>
-  </si>
-  <si>
-    <t>08-19</t>
-  </si>
-  <si>
-    <t>08-26</t>
-  </si>
-  <si>
-    <t>09-02</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,23 +445,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -359,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,27 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,24 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,18 +736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:AW48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -793,46 +891,58 @@
       <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N2">
         <v>26.5719708361814</v>
@@ -847,48 +957,147 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S2">
+        <v>121.3612842689288</v>
+      </c>
+      <c r="T2">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U2">
+        <v>341.1650227</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2">
+        <v>121.3612842689288</v>
+      </c>
+      <c r="X2">
+        <v>103.3612842689288</v>
+      </c>
+      <c r="Y2">
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>18</v>
+      </c>
+      <c r="AA2">
+        <v>438</v>
+      </c>
+      <c r="AB2">
+        <v>7.006487901757318</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.06669101825655457</v>
+      </c>
+      <c r="AF2">
+        <v>0.06669101825655457</v>
+      </c>
+      <c r="AG2">
+        <v>0.05679957440896075</v>
+      </c>
+      <c r="AI2">
+        <v>49.90082940243557</v>
+      </c>
+      <c r="AJ2">
+        <v>93.57656865334479</v>
+      </c>
+      <c r="AL2">
+        <v>36.05365126676602</v>
+      </c>
+      <c r="AM2">
+        <v>1500.323721013413</v>
+      </c>
+      <c r="AN2">
+        <v>319.4308342711154</v>
+      </c>
+      <c r="AO2">
+        <v>1819.754555284528</v>
+      </c>
+      <c r="AP2">
+        <v>1201.254856631088</v>
+      </c>
+      <c r="AQ2">
+        <v>766.4359434063301</v>
+      </c>
+      <c r="AR2">
+        <v>95.1009948790165</v>
+      </c>
+      <c r="AS2">
+        <v>106.4463791381081</v>
+      </c>
+      <c r="AT2">
+        <v>12.86981048476326</v>
+      </c>
+      <c r="AU2">
+        <v>83.16804900405928</v>
+      </c>
+      <c r="AV2">
+        <v>236.5785933466117</v>
+      </c>
+      <c r="AW2">
+        <v>40.11611378685152</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>26.770096670247</v>
@@ -903,51 +1112,150 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S3">
+        <v>120.9832122766731</v>
+      </c>
+      <c r="T3">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U3">
+        <v>341.2105190999999</v>
+      </c>
+      <c r="V3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3">
+        <v>120.9832122766731</v>
+      </c>
+      <c r="X3">
+        <v>102.9832122766731</v>
+      </c>
+      <c r="Y3">
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>438</v>
+      </c>
+      <c r="AB3">
+        <v>7.006487901757318</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.06648325837423538</v>
+      </c>
+      <c r="AF3">
+        <v>0.06648325837423538</v>
+      </c>
+      <c r="AG3">
+        <v>0.05659181452664155</v>
+      </c>
+      <c r="AI3">
+        <v>48.73368743316783</v>
+      </c>
+      <c r="AJ3">
+        <v>93.07020211814002</v>
+      </c>
+      <c r="AL3">
+        <v>36.05365126676602</v>
+      </c>
+      <c r="AM3">
+        <v>1500.323721013413</v>
+      </c>
+      <c r="AN3">
+        <v>319.4308342711152</v>
+      </c>
+      <c r="AO3">
+        <v>1819.754555284528</v>
+      </c>
+      <c r="AP3">
+        <v>1201.254856631088</v>
+      </c>
+      <c r="AQ3">
+        <v>776.9501562219943</v>
+      </c>
+      <c r="AR3">
+        <v>104.1979910023622</v>
+      </c>
+      <c r="AS3">
+        <v>107.4145135899673</v>
+      </c>
+      <c r="AT3">
+        <v>14.34431147182726</v>
+      </c>
+      <c r="AU3">
+        <v>81.22281238861305</v>
+      </c>
+      <c r="AV3">
+        <v>228.9389563304625</v>
+      </c>
+      <c r="AW3">
+        <v>38.82067727463475</v>
+      </c>
+      <c r="AX3">
+        <v>-11.5378943</v>
+      </c>
+      <c r="AY3">
+        <v>7.654720499999996</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N4">
-        <v>26.968222504312699</v>
+        <v>26.9682225043127</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -959,51 +1267,150 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S4">
+        <v>121.0024647206704</v>
+      </c>
+      <c r="T4">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U4">
+        <v>341.2296959</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4">
+        <v>121.0024647206704</v>
+      </c>
+      <c r="X4">
+        <v>103.0024647206704</v>
+      </c>
+      <c r="Y4">
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>18</v>
+      </c>
+      <c r="AA4">
+        <v>438</v>
+      </c>
+      <c r="AB4">
+        <v>7.006487901757318</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.06649383806694252</v>
+      </c>
+      <c r="AF4">
+        <v>0.06649383806694252</v>
+      </c>
+      <c r="AG4">
+        <v>0.05660239421934868</v>
+      </c>
+      <c r="AI4">
+        <v>50.41405380384974</v>
+      </c>
+      <c r="AJ4">
+        <v>92.48482789791208</v>
+      </c>
+      <c r="AL4">
+        <v>36.05365126676602</v>
+      </c>
+      <c r="AM4">
+        <v>1500.323721013413</v>
+      </c>
+      <c r="AN4">
+        <v>319.4308342711154</v>
+      </c>
+      <c r="AO4">
+        <v>1819.754555284528</v>
+      </c>
+      <c r="AP4">
+        <v>1201.254856631088</v>
+      </c>
+      <c r="AQ4">
+        <v>779.7672179767001</v>
+      </c>
+      <c r="AR4">
+        <v>105.3404246147712</v>
+      </c>
+      <c r="AS4">
+        <v>106.5974547908321</v>
+      </c>
+      <c r="AT4">
+        <v>14.11262689292002</v>
+      </c>
+      <c r="AU4">
+        <v>84.02342300641622</v>
+      </c>
+      <c r="AV4">
+        <v>235.2829653217827</v>
+      </c>
+      <c r="AW4">
+        <v>39.89641698109139</v>
+      </c>
+      <c r="AX4">
+        <v>-14.06128093638941</v>
+      </c>
+      <c r="AY4">
+        <v>6.668185186197483</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N5">
-        <v>27.166348338378398</v>
+        <v>27.1663483383784</v>
       </c>
       <c r="O5">
         <v>1.5</v>
@@ -1015,51 +1422,150 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S5">
+        <v>145.4865107431051</v>
+      </c>
+      <c r="T5">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U5">
+        <v>241.0509115999999</v>
+      </c>
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5">
+        <v>145.4865107431051</v>
+      </c>
+      <c r="X5">
+        <v>127.4865107431051</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>438</v>
+      </c>
+      <c r="AB5">
+        <v>7.006487901757318</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.07994842508876561</v>
+      </c>
+      <c r="AF5">
+        <v>0.07994842508876561</v>
+      </c>
+      <c r="AG5">
+        <v>0.0700569812411718</v>
+      </c>
+      <c r="AI5">
+        <v>51.70608000000002</v>
+      </c>
+      <c r="AJ5">
+        <v>87.97307666083879</v>
+      </c>
+      <c r="AL5">
+        <v>36.05365126676602</v>
+      </c>
+      <c r="AM5">
+        <v>1500.323721013413</v>
+      </c>
+      <c r="AN5">
+        <v>319.4308342711154</v>
+      </c>
+      <c r="AO5">
+        <v>1819.754555284528</v>
+      </c>
+      <c r="AP5">
+        <v>1201.254856631088</v>
+      </c>
+      <c r="AQ5">
+        <v>775.4457364443748</v>
+      </c>
+      <c r="AR5">
+        <v>126.2554615333394</v>
+      </c>
+      <c r="AS5">
+        <v>105.9725287013772</v>
+      </c>
+      <c r="AT5">
+        <v>17.99945204053838</v>
+      </c>
+      <c r="AU5">
+        <v>86.17680000000003</v>
+      </c>
+      <c r="AV5">
+        <v>71.90424864474717</v>
+      </c>
+      <c r="AW5">
+        <v>12.19264591773368</v>
+      </c>
+      <c r="AX5">
+        <v>-10.7831</v>
+      </c>
+      <c r="AY5">
+        <v>9.421900000000001</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N6">
-        <v>27.364474172444101</v>
+        <v>27.3644741724441</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1071,48 +1577,147 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S6">
+        <v>170.5599192672633</v>
+      </c>
+      <c r="T6">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U6">
+        <v>167.5729213</v>
+      </c>
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6">
+        <v>170.5599192672633</v>
+      </c>
+      <c r="X6">
+        <v>152.5599192672633</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>438</v>
+      </c>
+      <c r="AB6">
+        <v>7.006487901757318</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.09372688133790404</v>
+      </c>
+      <c r="AF6">
+        <v>0.09372688133790404</v>
+      </c>
+      <c r="AG6">
+        <v>0.08383543749031021</v>
+      </c>
+      <c r="AI6">
+        <v>58.38594197653744</v>
+      </c>
+      <c r="AJ6">
+        <v>108.9728160054771</v>
+      </c>
+      <c r="AL6">
+        <v>36.05365126676602</v>
+      </c>
+      <c r="AM6">
+        <v>1500.323721013413</v>
+      </c>
+      <c r="AN6">
+        <v>319.4308342711153</v>
+      </c>
+      <c r="AO6">
+        <v>1819.754555284528</v>
+      </c>
+      <c r="AP6">
+        <v>1201.254856631088</v>
+      </c>
+      <c r="AQ6">
+        <v>692.6666090522132</v>
+      </c>
+      <c r="AR6">
+        <v>51.21654153178504</v>
+      </c>
+      <c r="AS6">
+        <v>113.9933522888359</v>
+      </c>
+      <c r="AT6">
+        <v>5.020536283358779</v>
+      </c>
+      <c r="AU6">
+        <v>97.30990329422906</v>
+      </c>
+      <c r="AV6">
+        <v>87.27386867286108</v>
+      </c>
+      <c r="AW6">
+        <v>14.79883871475126</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>27.5626000065098</v>
@@ -1127,48 +1732,147 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S7">
+        <v>204.1913651167968</v>
+      </c>
+      <c r="T7">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U7">
+        <v>392.7740819000001</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7">
+        <v>204.1913651167968</v>
+      </c>
+      <c r="X7">
+        <v>186.1913651167968</v>
+      </c>
+      <c r="Y7">
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <v>438</v>
+      </c>
+      <c r="AB7">
+        <v>6.54812111715387</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.1001182962407604</v>
+      </c>
+      <c r="AF7">
+        <v>0.1001182962407604</v>
+      </c>
+      <c r="AG7">
+        <v>0.09129260798845415</v>
+      </c>
+      <c r="AI7">
+        <v>54.85653413450022</v>
+      </c>
+      <c r="AJ7">
+        <v>132.2682557684195</v>
+      </c>
+      <c r="AL7">
+        <v>44.49478390461997</v>
+      </c>
+      <c r="AM7">
+        <v>1605.345993442623</v>
+      </c>
+      <c r="AN7">
+        <v>434.155004714255</v>
+      </c>
+      <c r="AO7">
+        <v>2039.500998156878</v>
+      </c>
+      <c r="AP7">
+        <v>1053.457805198058</v>
+      </c>
+      <c r="AQ7">
+        <v>1074.963244127734</v>
+      </c>
+      <c r="AR7">
+        <v>65.24228225840587</v>
+      </c>
+      <c r="AS7">
+        <v>143.7216531116312</v>
+      </c>
+      <c r="AT7">
+        <v>11.45339734321167</v>
+      </c>
+      <c r="AU7">
+        <v>91.4275568908337</v>
+      </c>
+      <c r="AV7">
+        <v>5.50472870002146</v>
+      </c>
+      <c r="AW7">
+        <v>0.9334247861228602</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>27.7607258405755</v>
@@ -1183,48 +1887,147 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S8">
+        <v>202.2004551228476</v>
+      </c>
+      <c r="T8">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U8">
+        <v>398.1779553000001</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8">
+        <v>202.2004551228476</v>
+      </c>
+      <c r="X8">
+        <v>184.2004551228476</v>
+      </c>
+      <c r="Y8">
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>18</v>
+      </c>
+      <c r="AA8">
+        <v>438</v>
+      </c>
+      <c r="AB8">
+        <v>6.54812111715387</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.09914212118826055</v>
+      </c>
+      <c r="AF8">
+        <v>0.09914212118826055</v>
+      </c>
+      <c r="AG8">
+        <v>0.09031643293595432</v>
+      </c>
+      <c r="AI8">
+        <v>54.2890862565347</v>
+      </c>
+      <c r="AJ8">
+        <v>133.9246165678814</v>
+      </c>
+      <c r="AL8">
+        <v>44.49478390461997</v>
+      </c>
+      <c r="AM8">
+        <v>1605.345993442623</v>
+      </c>
+      <c r="AN8">
+        <v>434.1550047142549</v>
+      </c>
+      <c r="AO8">
+        <v>2039.500998156878</v>
+      </c>
+      <c r="AP8">
+        <v>1053.457805198058</v>
+      </c>
+      <c r="AQ8">
+        <v>1073.035078238709</v>
+      </c>
+      <c r="AR8">
+        <v>62.37011116076498</v>
+      </c>
+      <c r="AS8">
+        <v>144.793250529254</v>
+      </c>
+      <c r="AT8">
+        <v>10.86863396137258</v>
+      </c>
+      <c r="AU8">
+        <v>90.48181042755783</v>
+      </c>
+      <c r="AV8">
+        <v>23.66750929647113</v>
+      </c>
+      <c r="AW8">
+        <v>4.013247701568517</v>
+      </c>
+      <c r="AX8">
+        <v>-6.902354499999994</v>
+      </c>
+      <c r="AY8">
+        <v>8.421531399999992</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>27.9588516746411</v>
@@ -1239,51 +2042,150 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <v>213.1029858732249</v>
+      </c>
+      <c r="T9">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U9">
+        <v>401.4911877</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9">
+        <v>213.1029858732249</v>
+      </c>
+      <c r="X9">
+        <v>195.1029858732249</v>
+      </c>
+      <c r="Y9">
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>18</v>
+      </c>
+      <c r="AA9">
+        <v>438</v>
+      </c>
+      <c r="AB9">
+        <v>6.54812111715387</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.1044878066084835</v>
+      </c>
+      <c r="AF9">
+        <v>0.1044878066084835</v>
+      </c>
+      <c r="AG9">
+        <v>0.09566211835617724</v>
+      </c>
+      <c r="AI9">
+        <v>63.63904521540612</v>
+      </c>
+      <c r="AJ9">
+        <v>131.4639406578188</v>
+      </c>
+      <c r="AL9">
+        <v>44.49478390461997</v>
+      </c>
+      <c r="AM9">
+        <v>1605.345993442623</v>
+      </c>
+      <c r="AN9">
+        <v>434.1550047142549</v>
+      </c>
+      <c r="AO9">
+        <v>2039.500998156878</v>
+      </c>
+      <c r="AP9">
+        <v>1053.457805198058</v>
+      </c>
+      <c r="AQ9">
+        <v>1075.101223612195</v>
+      </c>
+      <c r="AR9">
+        <v>67.74521756596909</v>
+      </c>
+      <c r="AS9">
+        <v>143.2936585247397</v>
+      </c>
+      <c r="AT9">
+        <v>11.82971786692088</v>
+      </c>
+      <c r="AU9">
+        <v>106.0650753590102</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>-9.196359136759163</v>
+      </c>
+      <c r="AY9">
+        <v>8.144629032387627</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>28.156977508706799</v>
+        <v>28.1569775087068</v>
       </c>
       <c r="O10">
         <v>1.5</v>
@@ -1295,51 +2197,150 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S10">
+        <v>217.7457655238611</v>
+      </c>
+      <c r="T10">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U10">
+        <v>373.9667784000001</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10">
+        <v>217.7457655238611</v>
+      </c>
+      <c r="X10">
+        <v>199.7457655238611</v>
+      </c>
+      <c r="Y10">
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>438</v>
+      </c>
+      <c r="AB10">
+        <v>6.54812111715387</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.1067642358207427</v>
+      </c>
+      <c r="AF10">
+        <v>0.1067642358207427</v>
+      </c>
+      <c r="AG10">
+        <v>0.09793854756843649</v>
+      </c>
+      <c r="AI10">
+        <v>68.37970106777323</v>
+      </c>
+      <c r="AJ10">
+        <v>131.3660644560879</v>
+      </c>
+      <c r="AL10">
+        <v>44.49478390461997</v>
+      </c>
+      <c r="AM10">
+        <v>1605.345993442623</v>
+      </c>
+      <c r="AN10">
+        <v>434.155004714255</v>
+      </c>
+      <c r="AO10">
+        <v>2039.500998156878</v>
+      </c>
+      <c r="AP10">
+        <v>1053.457805198058</v>
+      </c>
+      <c r="AQ10">
+        <v>1076.454435077806</v>
+      </c>
+      <c r="AR10">
+        <v>69.68396064566841</v>
+      </c>
+      <c r="AS10">
+        <v>143.4194339774811</v>
+      </c>
+      <c r="AT10">
+        <v>12.05336952139319</v>
+      </c>
+      <c r="AU10">
+        <v>113.9661684462887</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>-12.42469999999999</v>
+      </c>
+      <c r="AY10">
+        <v>10.5891</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:53">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N11">
-        <v>28.355103342772502</v>
+        <v>28.3551033427725</v>
       </c>
       <c r="O11">
         <v>1.5</v>
@@ -1351,51 +2352,150 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S11">
+        <v>268.660626384697</v>
+      </c>
+      <c r="T11">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U11">
+        <v>153.4976543</v>
+      </c>
+      <c r="V11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11">
+        <v>268.660626384697</v>
+      </c>
+      <c r="X11">
+        <v>250.660626384697</v>
+      </c>
+      <c r="Y11">
+        <v>18</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>438</v>
+      </c>
+      <c r="AB11">
+        <v>6.54812111715387</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.1317286074522585</v>
+      </c>
+      <c r="AF11">
+        <v>0.1317286074522585</v>
+      </c>
+      <c r="AG11">
+        <v>0.1229029191999523</v>
+      </c>
+      <c r="AI11">
+        <v>77.32029527572608</v>
+      </c>
+      <c r="AJ11">
+        <v>173.3403311089709</v>
+      </c>
+      <c r="AL11">
+        <v>44.49478390461997</v>
+      </c>
+      <c r="AM11">
+        <v>1605.345993442623</v>
+      </c>
+      <c r="AN11">
+        <v>434.1550047142557</v>
+      </c>
+      <c r="AO11">
+        <v>2039.500998156879</v>
+      </c>
+      <c r="AP11">
+        <v>1053.457805198058</v>
+      </c>
+      <c r="AQ11">
+        <v>990.8606324635339</v>
+      </c>
+      <c r="AR11">
+        <v>1.524860714596936E-14</v>
+      </c>
+      <c r="AS11">
+        <v>173.3403311089709</v>
+      </c>
+      <c r="AT11">
+        <v>1.437562438686261E-15</v>
+      </c>
+      <c r="AU11">
+        <v>128.8671587928768</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N12">
-        <v>28.553229176838201</v>
+        <v>28.5532291768382</v>
       </c>
       <c r="O12">
         <v>1.5</v>
@@ -1407,48 +2507,147 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S12">
+        <v>158.899385004484</v>
+      </c>
+      <c r="T12">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U12">
+        <v>313.1065100000001</v>
+      </c>
+      <c r="V12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12">
+        <v>158.899385004484</v>
+      </c>
+      <c r="X12">
+        <v>140.899385004484</v>
+      </c>
+      <c r="Y12">
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>438</v>
+      </c>
+      <c r="AB12">
+        <v>6.630128462105926</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.08057007892824014</v>
+      </c>
+      <c r="AF12">
+        <v>0.08057007892824014</v>
+      </c>
+      <c r="AG12">
+        <v>0.07144316241646512</v>
+      </c>
+      <c r="AI12">
+        <v>49.03304202972202</v>
+      </c>
+      <c r="AJ12">
+        <v>113.3078213351485</v>
+      </c>
+      <c r="AL12">
+        <v>40.63189269746647</v>
+      </c>
+      <c r="AM12">
+        <v>1585.489641728763</v>
+      </c>
+      <c r="AN12">
+        <v>386.6988818298148</v>
+      </c>
+      <c r="AO12">
+        <v>1972.188523558578</v>
+      </c>
+      <c r="AP12">
+        <v>1189.254723774112</v>
+      </c>
+      <c r="AQ12">
+        <v>919.5276154209625</v>
+      </c>
+      <c r="AR12">
+        <v>97.59107837798224</v>
+      </c>
+      <c r="AS12">
+        <v>126.8885167599531</v>
+      </c>
+      <c r="AT12">
+        <v>13.58069542480464</v>
+      </c>
+      <c r="AU12">
+        <v>81.72173671620335</v>
+      </c>
+      <c r="AV12">
+        <v>126.4478113888151</v>
+      </c>
+      <c r="AW12">
+        <v>21.44147836038648</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:53">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>28.7513550109039</v>
@@ -1463,48 +2662,147 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S13">
+        <v>165.3873495439123</v>
+      </c>
+      <c r="T13">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U13">
+        <v>378.304527</v>
+      </c>
+      <c r="V13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13">
+        <v>165.3873495439123</v>
+      </c>
+      <c r="X13">
+        <v>147.3873495439123</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>438</v>
+      </c>
+      <c r="AB13">
+        <v>6.630128462105926</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0.08384595064199767</v>
+      </c>
+      <c r="AF13">
+        <v>0.08384595064199767</v>
+      </c>
+      <c r="AG13">
+        <v>0.07472054222522369</v>
+      </c>
+      <c r="AI13">
+        <v>50.6765850234719</v>
+      </c>
+      <c r="AJ13">
+        <v>111.8892907753517</v>
+      </c>
+      <c r="AL13">
+        <v>40.63189269746647</v>
+      </c>
+      <c r="AM13">
+        <v>1585.489641728763</v>
+      </c>
+      <c r="AN13">
+        <v>387.0248121901518</v>
+      </c>
+      <c r="AO13">
+        <v>1972.514453918915</v>
+      </c>
+      <c r="AP13">
+        <v>1189.254723774112</v>
+      </c>
+      <c r="AQ13">
+        <v>918.533634582436</v>
+      </c>
+      <c r="AR13">
+        <v>100.8337885937854</v>
+      </c>
+      <c r="AS13">
+        <v>126.0790886103822</v>
+      </c>
+      <c r="AT13">
+        <v>14.18979783503057</v>
+      </c>
+      <c r="AU13">
+        <v>84.46097503911983</v>
+      </c>
+      <c r="AV13">
+        <v>89.51301737603698</v>
+      </c>
+      <c r="AW13">
+        <v>15.17852625491125</v>
+      </c>
+      <c r="AX13">
+        <v>-5.162754900000003</v>
+      </c>
+      <c r="AY13">
+        <v>6.419969300000005</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:53">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>28.9494808449696</v>
@@ -1519,51 +2817,150 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S14">
+        <v>158.4764507690563</v>
+      </c>
+      <c r="T14">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U14">
+        <v>383.9186593000002</v>
+      </c>
+      <c r="V14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14">
+        <v>158.4764507690563</v>
+      </c>
+      <c r="X14">
+        <v>140.4764507690563</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>438</v>
+      </c>
+      <c r="AB14">
+        <v>6.630128462105926</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.08038340668282308</v>
+      </c>
+      <c r="AF14">
+        <v>0.08038340668282308</v>
+      </c>
+      <c r="AG14">
+        <v>0.07125333522255704</v>
+      </c>
+      <c r="AI14">
+        <v>49.00572236132801</v>
+      </c>
+      <c r="AJ14">
+        <v>113.3985117051009</v>
+      </c>
+      <c r="AL14">
+        <v>40.63189269746647</v>
+      </c>
+      <c r="AM14">
+        <v>1585.489641728763</v>
+      </c>
+      <c r="AN14">
+        <v>386.0173807886184</v>
+      </c>
+      <c r="AO14">
+        <v>1971.507022517382</v>
+      </c>
+      <c r="AP14">
+        <v>1189.254723774112</v>
+      </c>
+      <c r="AQ14">
+        <v>909.9453479266292</v>
+      </c>
+      <c r="AR14">
+        <v>90.0428136708077</v>
+      </c>
+      <c r="AS14">
+        <v>125.6517207317024</v>
+      </c>
+      <c r="AT14">
+        <v>12.25320902660151</v>
+      </c>
+      <c r="AU14">
+        <v>81.6762039355467</v>
+      </c>
+      <c r="AV14">
+        <v>129.315719744569</v>
+      </c>
+      <c r="AW14">
+        <v>21.92778329737259</v>
+      </c>
+      <c r="AX14">
+        <v>-9.606352183232907</v>
+      </c>
+      <c r="AY14">
+        <v>9.892201500784523</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:53">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N15">
-        <v>29.147606679035199</v>
+        <v>29.1476066790352</v>
       </c>
       <c r="O15">
         <v>1.5</v>
@@ -1575,51 +2972,150 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S15">
+        <v>184.4547649509447</v>
+      </c>
+      <c r="T15">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U15">
+        <v>317.6997953</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15">
+        <v>184.4547649509447</v>
+      </c>
+      <c r="X15">
+        <v>166.4547649509447</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>438</v>
+      </c>
+      <c r="AB15">
+        <v>6.630128462105926</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.09358631253249983</v>
+      </c>
+      <c r="AF15">
+        <v>0.09358631253249983</v>
+      </c>
+      <c r="AG15">
+        <v>0.08445370147724733</v>
+      </c>
+      <c r="AI15">
+        <v>58.01555789637388</v>
+      </c>
+      <c r="AJ15">
+        <v>109.2016226407867</v>
+      </c>
+      <c r="AL15">
+        <v>40.63189269746647</v>
+      </c>
+      <c r="AM15">
+        <v>1585.489641728763</v>
+      </c>
+      <c r="AN15">
+        <v>385.4691444386993</v>
+      </c>
+      <c r="AO15">
+        <v>1970.958786167463</v>
+      </c>
+      <c r="AP15">
+        <v>1189.254723774112</v>
+      </c>
+      <c r="AQ15">
+        <v>906.2334161857146</v>
+      </c>
+      <c r="AR15">
+        <v>103.4583927107191</v>
+      </c>
+      <c r="AS15">
+        <v>123.5971661710094</v>
+      </c>
+      <c r="AT15">
+        <v>14.39554353022267</v>
+      </c>
+      <c r="AU15">
+        <v>96.69259649395647</v>
+      </c>
+      <c r="AV15">
+        <v>4.496228320890328</v>
+      </c>
+      <c r="AW15">
+        <v>0.7624155862159456</v>
+      </c>
+      <c r="AX15">
+        <v>-13.5136</v>
+      </c>
+      <c r="AY15">
+        <v>9.895200000000003</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:53">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N16">
-        <v>29.345732513100899</v>
+        <v>29.3457325131009</v>
       </c>
       <c r="O16">
         <v>1.5</v>
@@ -1631,51 +3127,150 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S16">
+        <v>207.3944526255123</v>
+      </c>
+      <c r="T16">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U16">
+        <v>152.8619838</v>
+      </c>
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16">
+        <v>207.3944526255123</v>
+      </c>
+      <c r="X16">
+        <v>189.3944526255123</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>438</v>
+      </c>
+      <c r="AB16">
+        <v>6.630128462105926</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.105189394680247</v>
+      </c>
+      <c r="AF16">
+        <v>0.105189394680247</v>
+      </c>
+      <c r="AG16">
+        <v>0.09605988769356139</v>
+      </c>
+      <c r="AI16">
+        <v>60.66175027124578</v>
+      </c>
+      <c r="AJ16">
+        <v>143.3543321017485</v>
+      </c>
+      <c r="AL16">
+        <v>40.63189269746647</v>
+      </c>
+      <c r="AM16">
+        <v>1585.489641728763</v>
+      </c>
+      <c r="AN16">
+        <v>386.1392782393253</v>
+      </c>
+      <c r="AO16">
+        <v>1971.628919968089</v>
+      </c>
+      <c r="AP16">
+        <v>1189.254723774112</v>
+      </c>
+      <c r="AQ16">
+        <v>850.8558128927984</v>
+      </c>
+      <c r="AR16">
+        <v>48.24315118802581</v>
+      </c>
+      <c r="AS16">
+        <v>147.8715023008659</v>
+      </c>
+      <c r="AT16">
+        <v>4.517170199117404</v>
+      </c>
+      <c r="AU16">
+        <v>101.102917118743</v>
+      </c>
+      <c r="AV16">
+        <v>86.22880612199386</v>
+      </c>
+      <c r="AW16">
+        <v>14.621629747482</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:53">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N17">
-        <v>29.543858347166601</v>
+        <v>29.5438583471666</v>
       </c>
       <c r="O17">
         <v>1.5</v>
@@ -1687,51 +3282,150 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S17">
+        <v>180.1617706295284</v>
+      </c>
+      <c r="T17">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U17">
+        <v>390.9608788999999</v>
+      </c>
+      <c r="V17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17">
+        <v>180.1617706295284</v>
+      </c>
+      <c r="X17">
+        <v>162.1617706295284</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>438</v>
+      </c>
+      <c r="AB17">
+        <v>6.500484444213855</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.08702702090910955</v>
+      </c>
+      <c r="AF17">
+        <v>0.08702702090910955</v>
+      </c>
+      <c r="AG17">
+        <v>0.07833213313746802</v>
+      </c>
+      <c r="AI17">
+        <v>48.69144504276996</v>
+      </c>
+      <c r="AJ17">
+        <v>124.1133855732975</v>
+      </c>
+      <c r="AL17">
+        <v>47.35618479880775</v>
+      </c>
+      <c r="AM17">
+        <v>1617.110246199702</v>
+      </c>
+      <c r="AN17">
+        <v>453.0717357583868</v>
+      </c>
+      <c r="AO17">
+        <v>2070.181981958089</v>
+      </c>
+      <c r="AP17">
+        <v>1196.458438569963</v>
+      </c>
+      <c r="AQ17">
+        <v>1012.857074142367</v>
+      </c>
+      <c r="AR17">
+        <v>109.151753560841</v>
+      </c>
+      <c r="AS17">
+        <v>139.4612814289189</v>
+      </c>
+      <c r="AT17">
+        <v>15.34789585562139</v>
+      </c>
+      <c r="AU17">
+        <v>81.15240840461659</v>
+      </c>
+      <c r="AV17">
+        <v>62.7658046314616</v>
+      </c>
+      <c r="AW17">
+        <v>10.64305998653901</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:53">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N18">
-        <v>29.741984181232301</v>
+        <v>29.7419841812323</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -1743,48 +3437,147 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S18">
+        <v>188.952504747155</v>
+      </c>
+      <c r="T18">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U18">
+        <v>421.5120593000001</v>
+      </c>
+      <c r="V18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18">
+        <v>188.952504747155</v>
+      </c>
+      <c r="X18">
+        <v>170.952504747155</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>438</v>
+      </c>
+      <c r="AB18">
+        <v>6.500484444213855</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0.09127337905261527</v>
+      </c>
+      <c r="AF18">
+        <v>0.09127337905261527</v>
+      </c>
+      <c r="AG18">
+        <v>0.08257849128097375</v>
+      </c>
+      <c r="AI18">
+        <v>53.94657389170384</v>
+      </c>
+      <c r="AJ18">
+        <v>121.9342896448778</v>
+      </c>
+      <c r="AL18">
+        <v>47.35618479880775</v>
+      </c>
+      <c r="AM18">
+        <v>1617.110246199702</v>
+      </c>
+      <c r="AN18">
+        <v>453.0717357583868</v>
+      </c>
+      <c r="AO18">
+        <v>2070.181981958089</v>
+      </c>
+      <c r="AP18">
+        <v>1196.458438569963</v>
+      </c>
+      <c r="AQ18">
+        <v>1010.676816600664</v>
+      </c>
+      <c r="AR18">
+        <v>110.4116509586676</v>
+      </c>
+      <c r="AS18">
+        <v>137.5123847483642</v>
+      </c>
+      <c r="AT18">
+        <v>15.57809510348633</v>
+      </c>
+      <c r="AU18">
+        <v>89.91095648617306</v>
+      </c>
+      <c r="AV18">
+        <v>29.0642357857736</v>
+      </c>
+      <c r="AW18">
+        <v>4.928358789426688</v>
+      </c>
+      <c r="AX18">
+        <v>-6.021250999999999</v>
+      </c>
+      <c r="AY18">
+        <v>8.167855499999988</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:53">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>29.940110015298</v>
@@ -1799,51 +3592,150 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S19">
+        <v>203.2556498875878</v>
+      </c>
+      <c r="T19">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U19">
+        <v>415.2639518999999</v>
+      </c>
+      <c r="V19" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19">
+        <v>203.2556498875878</v>
+      </c>
+      <c r="X19">
+        <v>185.2556498875878</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>438</v>
+      </c>
+      <c r="AB19">
+        <v>6.500484444213855</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0.09818250359581324</v>
+      </c>
+      <c r="AF19">
+        <v>0.09818250359581324</v>
+      </c>
+      <c r="AG19">
+        <v>0.08948761582417171</v>
+      </c>
+      <c r="AI19">
+        <v>65.8413444576305</v>
+      </c>
+      <c r="AJ19">
+        <v>119.4143054299573</v>
+      </c>
+      <c r="AL19">
+        <v>47.35618479880775</v>
+      </c>
+      <c r="AM19">
+        <v>1617.110246199702</v>
+      </c>
+      <c r="AN19">
+        <v>453.0717357583868</v>
+      </c>
+      <c r="AO19">
+        <v>2070.181981958089</v>
+      </c>
+      <c r="AP19">
+        <v>1196.458438569963</v>
+      </c>
+      <c r="AQ19">
+        <v>1017.256761545577</v>
+      </c>
+      <c r="AR19">
+        <v>122.9342177154751</v>
+      </c>
+      <c r="AS19">
+        <v>137.1327695656217</v>
+      </c>
+      <c r="AT19">
+        <v>17.71846413566435</v>
+      </c>
+      <c r="AU19">
+        <v>109.7355740960508</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>-9.172265463022221</v>
+      </c>
+      <c r="AY19">
+        <v>10.73302852426687</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:53">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N20">
-        <v>30.138235849363699</v>
+        <v>30.1382358493637</v>
       </c>
       <c r="O20">
         <v>1.5</v>
@@ -1855,51 +3747,150 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S20">
+        <v>200.5436018512356</v>
+      </c>
+      <c r="T20">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U20">
+        <v>388.0251068000002</v>
+      </c>
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20">
+        <v>200.5436018512356</v>
+      </c>
+      <c r="X20">
+        <v>182.5436018512356</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>438</v>
+      </c>
+      <c r="AB20">
+        <v>6.500484444213855</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0.09687245063429197</v>
+      </c>
+      <c r="AF20">
+        <v>0.09687245063429197</v>
+      </c>
+      <c r="AG20">
+        <v>0.08817756286265044</v>
+      </c>
+      <c r="AI20">
+        <v>63.08779256100919</v>
+      </c>
+      <c r="AJ20">
+        <v>119.4558092902265</v>
+      </c>
+      <c r="AL20">
+        <v>47.35618479880775</v>
+      </c>
+      <c r="AM20">
+        <v>1617.110246199702</v>
+      </c>
+      <c r="AN20">
+        <v>453.0717357583871</v>
+      </c>
+      <c r="AO20">
+        <v>2070.181981958089</v>
+      </c>
+      <c r="AP20">
+        <v>1196.458438569963</v>
+      </c>
+      <c r="AQ20">
+        <v>1019.679658649276</v>
+      </c>
+      <c r="AR20">
+        <v>124.5222735639055</v>
+      </c>
+      <c r="AS20">
+        <v>137.3950058943478</v>
+      </c>
+      <c r="AT20">
+        <v>17.93919660412137</v>
+      </c>
+      <c r="AU20">
+        <v>105.1463209350153</v>
+      </c>
+      <c r="AV20">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="AW20">
+        <v>3.765161721068549E-17</v>
+      </c>
+      <c r="AX20">
+        <v>-11.4417</v>
+      </c>
+      <c r="AY20">
+        <v>11.7328</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:53">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N21">
-        <v>30.336361683429299</v>
+        <v>30.3363616834293</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -1911,51 +3902,150 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S21">
+        <v>240.4449659289677</v>
+      </c>
+      <c r="T21">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U21">
+        <v>137.4059588</v>
+      </c>
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21">
+        <v>240.4449659289677</v>
+      </c>
+      <c r="X21">
+        <v>222.4449659289677</v>
+      </c>
+      <c r="Y21">
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>438</v>
+      </c>
+      <c r="AB21">
+        <v>6.500484444213855</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0.1161467774449191</v>
+      </c>
+      <c r="AF21">
+        <v>0.1161467774449191</v>
+      </c>
+      <c r="AG21">
+        <v>0.1074518896732776</v>
+      </c>
+      <c r="AI21">
+        <v>76.87766845981969</v>
+      </c>
+      <c r="AJ21">
+        <v>158.8459956087487</v>
+      </c>
+      <c r="AL21">
+        <v>47.35618479880775</v>
+      </c>
+      <c r="AM21">
+        <v>1617.110246199702</v>
+      </c>
+      <c r="AN21">
+        <v>453.0717357583864</v>
+      </c>
+      <c r="AO21">
+        <v>2070.181981958088</v>
+      </c>
+      <c r="AP21">
+        <v>1196.458438569963</v>
+      </c>
+      <c r="AQ21">
+        <v>942.008303524904</v>
+      </c>
+      <c r="AR21">
+        <v>50.25498307416625</v>
+      </c>
+      <c r="AS21">
+        <v>163.6245715898227</v>
+      </c>
+      <c r="AT21">
+        <v>4.778575981073968</v>
+      </c>
+      <c r="AU21">
+        <v>128.1294474330328</v>
+      </c>
+      <c r="AV21">
+        <v>78.30907410504548</v>
+      </c>
+      <c r="AW21">
+        <v>13.27869813960065</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:53">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N22">
-        <v>30.534487517494998</v>
+        <v>30.534487517495</v>
       </c>
       <c r="O22">
         <v>1.5</v>
@@ -1967,51 +4057,150 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S22">
+        <v>188.4726218758715</v>
+      </c>
+      <c r="T22">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U22">
+        <v>299.4431537</v>
+      </c>
+      <c r="V22" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22">
+        <v>188.4726218758715</v>
+      </c>
+      <c r="X22">
+        <v>170.4726218758715</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>438</v>
+      </c>
+      <c r="AB22">
+        <v>6.498574300608295</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0.09590973366201082</v>
+      </c>
+      <c r="AF22">
+        <v>0.09590973366201082</v>
+      </c>
+      <c r="AG22">
+        <v>0.0867499141150997</v>
+      </c>
+      <c r="AI22">
+        <v>51.18945272473192</v>
+      </c>
+      <c r="AJ22">
+        <v>125.3268584164235</v>
+      </c>
+      <c r="AL22">
+        <v>35.48137108792847</v>
+      </c>
+      <c r="AM22">
+        <v>1617.585567809239</v>
+      </c>
+      <c r="AN22">
+        <v>347.5186471608014</v>
+      </c>
+      <c r="AO22">
+        <v>1965.104214970041</v>
+      </c>
+      <c r="AP22">
+        <v>1079.157683125924</v>
+      </c>
+      <c r="AQ22">
+        <v>956.2405119677569</v>
+      </c>
+      <c r="AR22">
+        <v>44.35924396318701</v>
+      </c>
+      <c r="AS22">
+        <v>132.401929984485</v>
+      </c>
+      <c r="AT22">
+        <v>7.07507156806142</v>
+      </c>
+      <c r="AU22">
+        <v>87.82395332478339</v>
+      </c>
+      <c r="AV22">
+        <v>35.64172523295473</v>
+      </c>
+      <c r="AW22">
+        <v>6.043689265284013</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N23">
-        <v>30.732613351560701</v>
+        <v>30.7326133515607</v>
       </c>
       <c r="O23">
         <v>1.5</v>
@@ -2023,48 +4212,147 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S23">
+        <v>187.1928553532705</v>
+      </c>
+      <c r="T23">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U23">
+        <v>343.0420260999999</v>
+      </c>
+      <c r="V23" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23">
+        <v>187.1928553532705</v>
+      </c>
+      <c r="X23">
+        <v>169.1928553532705</v>
+      </c>
+      <c r="Y23">
+        <v>18</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>438</v>
+      </c>
+      <c r="AB23">
+        <v>6.498574300608295</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.09525848752816622</v>
+      </c>
+      <c r="AF23">
+        <v>0.09525848752816622</v>
+      </c>
+      <c r="AG23">
+        <v>0.08609866798125511</v>
+      </c>
+      <c r="AI23">
+        <v>50.80655297697979</v>
+      </c>
+      <c r="AJ23">
+        <v>125.785280039771</v>
+      </c>
+      <c r="AL23">
+        <v>35.48137108792847</v>
+      </c>
+      <c r="AM23">
+        <v>1617.585567809239</v>
+      </c>
+      <c r="AN23">
+        <v>347.5186471608017</v>
+      </c>
+      <c r="AO23">
+        <v>1965.104214970041</v>
+      </c>
+      <c r="AP23">
+        <v>1079.157683125924</v>
+      </c>
+      <c r="AQ23">
+        <v>957.0361626990964</v>
+      </c>
+      <c r="AR23">
+        <v>45.36551623149625</v>
+      </c>
+      <c r="AS23">
+        <v>133.002214002873</v>
+      </c>
+      <c r="AT23">
+        <v>7.216933963101941</v>
+      </c>
+      <c r="AU23">
+        <v>86.25369999999999</v>
+      </c>
+      <c r="AV23">
+        <v>43.63432951481166</v>
+      </c>
+      <c r="AW23">
+        <v>7.398977663480255</v>
+      </c>
+      <c r="AX23">
+        <v>-3.897926599999991</v>
+      </c>
+      <c r="AY23">
+        <v>7.15720619999999</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>30.9307391856264</v>
@@ -2079,48 +4367,147 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S24">
+        <v>191.0423756678602</v>
+      </c>
+      <c r="T24">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U24">
+        <v>352.5936245999997</v>
+      </c>
+      <c r="V24" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24">
+        <v>191.0423756678602</v>
+      </c>
+      <c r="X24">
+        <v>173.0423756678602</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>438</v>
+      </c>
+      <c r="AB24">
+        <v>6.498574300608295</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0.09721742705171123</v>
+      </c>
+      <c r="AF24">
+        <v>0.09721742705171123</v>
+      </c>
+      <c r="AG24">
+        <v>0.08805760750480011</v>
+      </c>
+      <c r="AI24">
+        <v>53.25344710152648</v>
+      </c>
+      <c r="AJ24">
+        <v>123.5764076292805</v>
+      </c>
+      <c r="AL24">
+        <v>35.48137108792847</v>
+      </c>
+      <c r="AM24">
+        <v>1617.585567809239</v>
+      </c>
+      <c r="AN24">
+        <v>347.5186471608017</v>
+      </c>
+      <c r="AO24">
+        <v>1965.104214970041</v>
+      </c>
+      <c r="AP24">
+        <v>1079.157683125924</v>
+      </c>
+      <c r="AQ24">
+        <v>982.5758186117935</v>
+      </c>
+      <c r="AR24">
+        <v>72.32659502099517</v>
+      </c>
+      <c r="AS24">
+        <v>135.4548084554006</v>
+      </c>
+      <c r="AT24">
+        <v>11.87840082612008</v>
+      </c>
+      <c r="AU24">
+        <v>90.09949830412755</v>
+      </c>
+      <c r="AV24">
+        <v>22.33607357389058</v>
+      </c>
+      <c r="AW24">
+        <v>3.787479062946737</v>
+      </c>
+      <c r="AX24">
+        <v>-9.157965446709362</v>
+      </c>
+      <c r="AY24">
+        <v>11.31861873806203</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:53">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N25">
         <v>31.1288650196921</v>
@@ -2135,51 +4522,150 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S25">
+        <v>202.3805633523447</v>
+      </c>
+      <c r="T25">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U25">
+        <v>294.9710698000004</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25">
+        <v>202.3805633523447</v>
+      </c>
+      <c r="X25">
+        <v>184.3805633523447</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>438</v>
+      </c>
+      <c r="AB25">
+        <v>6.498574300608295</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.102987191117205</v>
+      </c>
+      <c r="AF25">
+        <v>0.102987191117205</v>
+      </c>
+      <c r="AG25">
+        <v>0.09382737157029387</v>
+      </c>
+      <c r="AI25">
+        <v>62.27792953989693</v>
+      </c>
+      <c r="AJ25">
+        <v>122.1026338124477</v>
+      </c>
+      <c r="AL25">
+        <v>35.48137108792847</v>
+      </c>
+      <c r="AM25">
+        <v>1617.585567809239</v>
+      </c>
+      <c r="AN25">
+        <v>347.5186471608014</v>
+      </c>
+      <c r="AO25">
+        <v>1965.104214970041</v>
+      </c>
+      <c r="AP25">
+        <v>1079.157683125924</v>
+      </c>
+      <c r="AQ25">
+        <v>977.4853599438702</v>
+      </c>
+      <c r="AR25">
+        <v>71.18848269555761</v>
+      </c>
+      <c r="AS25">
+        <v>133.6418206247552</v>
+      </c>
+      <c r="AT25">
+        <v>11.5391868123074</v>
+      </c>
+      <c r="AU25">
+        <v>107.6039573564164</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>-12.9013</v>
+      </c>
+      <c r="AY25">
+        <v>14.0701</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:53">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26">
-        <v>31.326990853757799</v>
+        <v>31.3269908537578</v>
       </c>
       <c r="O26">
         <v>1.5</v>
@@ -2191,51 +4677,150 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S26">
+        <v>224.5475937541146</v>
+      </c>
+      <c r="T26">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U26">
+        <v>128.0898056999999</v>
+      </c>
+      <c r="V26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26">
+        <v>224.5475937541146</v>
+      </c>
+      <c r="X26">
+        <v>206.5475937541146</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>438</v>
+      </c>
+      <c r="AB26">
+        <v>6.498574300608295</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0.1142675243600441</v>
+      </c>
+      <c r="AF26">
+        <v>0.1142675243600441</v>
+      </c>
+      <c r="AG26">
+        <v>0.105107704813133</v>
+      </c>
+      <c r="AI26">
+        <v>62.78478001671127</v>
+      </c>
+      <c r="AJ26">
+        <v>155.3595834247634</v>
+      </c>
+      <c r="AL26">
+        <v>35.48137108792847</v>
+      </c>
+      <c r="AM26">
+        <v>1617.585567809239</v>
+      </c>
+      <c r="AN26">
+        <v>347.5186471608019</v>
+      </c>
+      <c r="AO26">
+        <v>1965.104214970041</v>
+      </c>
+      <c r="AP26">
+        <v>1079.157683125924</v>
+      </c>
+      <c r="AQ26">
+        <v>915.9105287849047</v>
+      </c>
+      <c r="AR26">
+        <v>12.16810185253647</v>
+      </c>
+      <c r="AS26">
+        <v>156.7869341314423</v>
+      </c>
+      <c r="AT26">
+        <v>1.42735070667893</v>
+      </c>
+      <c r="AU26">
+        <v>111.1583928930002</v>
+      </c>
+      <c r="AV26">
+        <v>68.39016048706819</v>
+      </c>
+      <c r="AW26">
+        <v>11.59676968736004</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:53">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N27">
-        <v>31.525116687823498</v>
+        <v>31.5251166878235</v>
       </c>
       <c r="O27">
         <v>1.5</v>
@@ -2247,51 +4832,150 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S27">
+        <v>187.242890011427</v>
+      </c>
+      <c r="T27">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U27">
+        <v>315.2561493999997</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27">
+        <v>187.242890011427</v>
+      </c>
+      <c r="X27">
+        <v>169.242890011427</v>
+      </c>
+      <c r="Y27">
+        <v>18</v>
+      </c>
+      <c r="Z27">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>438</v>
+      </c>
+      <c r="AB27">
+        <v>6.533528006375125</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0.09463006213429993</v>
+      </c>
+      <c r="AF27">
+        <v>0.09463006213429993</v>
+      </c>
+      <c r="AG27">
+        <v>0.08553310193296225</v>
+      </c>
+      <c r="AI27">
+        <v>51.72570374292584</v>
+      </c>
+      <c r="AJ27">
+        <v>126.3603207063345</v>
+      </c>
+      <c r="AL27">
+        <v>39.20119225037258</v>
+      </c>
+      <c r="AM27">
+        <v>1608.931650670642</v>
+      </c>
+      <c r="AN27">
+        <v>369.7512941391165</v>
+      </c>
+      <c r="AO27">
+        <v>1978.682944809759</v>
+      </c>
+      <c r="AP27">
+        <v>1085.793362945165</v>
+      </c>
+      <c r="AQ27">
+        <v>975.2201742709443</v>
+      </c>
+      <c r="AR27">
+        <v>53.25652110385277</v>
+      </c>
+      <c r="AS27">
+        <v>134.4599800207374</v>
+      </c>
+      <c r="AT27">
+        <v>8.099659314402942</v>
+      </c>
+      <c r="AU27">
+        <v>86.20950623820974</v>
+      </c>
+      <c r="AV27">
+        <v>52.15102133754776</v>
+      </c>
+      <c r="AW27">
+        <v>8.843134437833324</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:53">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N28">
-        <v>31.723242521889102</v>
+        <v>31.7232425218891</v>
       </c>
       <c r="O28">
         <v>1.5</v>
@@ -2303,51 +4987,150 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S28">
+        <v>187.3808570988992</v>
+      </c>
+      <c r="T28">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U28">
+        <v>355.0231355000005</v>
+      </c>
+      <c r="V28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W28">
+        <v>187.3808570988992</v>
+      </c>
+      <c r="X28">
+        <v>169.3808570988992</v>
+      </c>
+      <c r="Y28">
+        <v>18</v>
+      </c>
+      <c r="Z28">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>438</v>
+      </c>
+      <c r="AB28">
+        <v>6.533528006375125</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0.09469978886229044</v>
+      </c>
+      <c r="AF28">
+        <v>0.09469978886229044</v>
+      </c>
+      <c r="AG28">
+        <v>0.08560282866095277</v>
+      </c>
+      <c r="AI28">
+        <v>52.98919045228988</v>
+      </c>
+      <c r="AJ28">
+        <v>126.8367623943135</v>
+      </c>
+      <c r="AL28">
+        <v>39.20119225037258</v>
+      </c>
+      <c r="AM28">
+        <v>1608.931650670642</v>
+      </c>
+      <c r="AN28">
+        <v>369.7512941391164</v>
+      </c>
+      <c r="AO28">
+        <v>1978.682944809759</v>
+      </c>
+      <c r="AP28">
+        <v>1085.793362945165</v>
+      </c>
+      <c r="AQ28">
+        <v>979.1199560612745</v>
+      </c>
+      <c r="AR28">
+        <v>54.09756287927624</v>
+      </c>
+      <c r="AS28">
+        <v>135.0056594818095</v>
+      </c>
+      <c r="AT28">
+        <v>8.168897087496021</v>
+      </c>
+      <c r="AU28">
+        <v>88.31531742048313</v>
+      </c>
+      <c r="AV28">
+        <v>61.59834106793367</v>
+      </c>
+      <c r="AW28">
+        <v>10.44509574770412</v>
+      </c>
+      <c r="AX28">
+        <v>-8.928770399999998</v>
+      </c>
+      <c r="AY28">
+        <v>4.331516100000002</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:53">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N29">
-        <v>31.921368355954801</v>
+        <v>31.9213683559548</v>
       </c>
       <c r="O29">
         <v>1.5</v>
@@ -2359,51 +5142,150 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S29">
+        <v>185.6498120257474</v>
+      </c>
+      <c r="T29">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U29">
+        <v>356.8334149999991</v>
+      </c>
+      <c r="V29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29">
+        <v>185.6498120257474</v>
+      </c>
+      <c r="X29">
+        <v>167.6498120257474</v>
+      </c>
+      <c r="Y29">
+        <v>18</v>
+      </c>
+      <c r="Z29">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>438</v>
+      </c>
+      <c r="AB29">
+        <v>6.533528006375125</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0.093824941743558</v>
+      </c>
+      <c r="AF29">
+        <v>0.093824941743558</v>
+      </c>
+      <c r="AG29">
+        <v>0.08472798154222033</v>
+      </c>
+      <c r="AI29">
+        <v>51.90247065254547</v>
+      </c>
+      <c r="AJ29">
+        <v>126.2404209939973</v>
+      </c>
+      <c r="AL29">
+        <v>39.20119225037258</v>
+      </c>
+      <c r="AM29">
+        <v>1608.931650670642</v>
+      </c>
+      <c r="AN29">
+        <v>369.7512941391163</v>
+      </c>
+      <c r="AO29">
+        <v>1978.682944809759</v>
+      </c>
+      <c r="AP29">
+        <v>1085.793362945165</v>
+      </c>
+      <c r="AQ29">
+        <v>982.7367035702471</v>
+      </c>
+      <c r="AR29">
+        <v>59.59890901497322</v>
+      </c>
+      <c r="AS29">
+        <v>135.3874987277008</v>
+      </c>
+      <c r="AT29">
+        <v>9.147077733703526</v>
+      </c>
+      <c r="AU29">
+        <v>86.50411775424244</v>
+      </c>
+      <c r="AV29">
+        <v>61.88131855821507</v>
+      </c>
+      <c r="AW29">
+        <v>10.49307962079535</v>
+      </c>
+      <c r="AX29">
+        <v>-9.013058559235162</v>
+      </c>
+      <c r="AY29">
+        <v>11.50863227860258</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:53">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N30">
-        <v>32.119494190020497</v>
+        <v>32.1194941900205</v>
       </c>
       <c r="O30">
         <v>1.5</v>
@@ -2415,51 +5297,150 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S30">
+        <v>208.2498254420387</v>
+      </c>
+      <c r="T30">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U30">
+        <v>320.5399885999996</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30">
+        <v>208.2498254420387</v>
+      </c>
+      <c r="X30">
+        <v>190.2498254420387</v>
+      </c>
+      <c r="Y30">
+        <v>18</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>438</v>
+      </c>
+      <c r="AB30">
+        <v>6.533528006375125</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.1052466874434302</v>
+      </c>
+      <c r="AF30">
+        <v>0.1052466874434302</v>
+      </c>
+      <c r="AG30">
+        <v>0.09614972724209254</v>
+      </c>
+      <c r="AI30">
+        <v>67.68464246830442</v>
+      </c>
+      <c r="AJ30">
+        <v>122.5651829737343</v>
+      </c>
+      <c r="AL30">
+        <v>39.20119225037258</v>
+      </c>
+      <c r="AM30">
+        <v>1608.931650670642</v>
+      </c>
+      <c r="AN30">
+        <v>369.7512941391163</v>
+      </c>
+      <c r="AO30">
+        <v>1978.682944809759</v>
+      </c>
+      <c r="AP30">
+        <v>1085.793362945165</v>
+      </c>
+      <c r="AQ30">
+        <v>986.6234996347514</v>
+      </c>
+      <c r="AR30">
+        <v>71.50719209562712</v>
+      </c>
+      <c r="AS30">
+        <v>133.6751350968213</v>
+      </c>
+      <c r="AT30">
+        <v>11.10995212308695</v>
+      </c>
+      <c r="AU30">
+        <v>112.807737447174</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>-12.8247</v>
+      </c>
+      <c r="AY30">
+        <v>13.52519999999999</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:53">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N31">
-        <v>32.317620024086203</v>
+        <v>32.3176200240862</v>
       </c>
       <c r="O31">
         <v>1.5</v>
@@ -2471,51 +5452,150 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S31">
+        <v>237.1456095260657</v>
+      </c>
+      <c r="T31">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U31">
+        <v>130.7006712000002</v>
+      </c>
+      <c r="V31" t="s">
+        <v>106</v>
+      </c>
+      <c r="W31">
+        <v>237.1456095260657</v>
+      </c>
+      <c r="X31">
+        <v>219.1456095260657</v>
+      </c>
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>438</v>
+      </c>
+      <c r="AB31">
+        <v>6.533528006375125</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.119850231765588</v>
+      </c>
+      <c r="AF31">
+        <v>0.119850231765588</v>
+      </c>
+      <c r="AG31">
+        <v>0.1107532715642503</v>
+      </c>
+      <c r="AI31">
+        <v>66.21808549463569</v>
+      </c>
+      <c r="AJ31">
+        <v>163.7800337559585</v>
+      </c>
+      <c r="AL31">
+        <v>39.20119225037258</v>
+      </c>
+      <c r="AM31">
+        <v>1608.931650670642</v>
+      </c>
+      <c r="AN31">
+        <v>369.7512941391159</v>
+      </c>
+      <c r="AO31">
+        <v>1978.682944809758</v>
+      </c>
+      <c r="AP31">
+        <v>1085.793362945165</v>
+      </c>
+      <c r="AQ31">
+        <v>926.5824450225936</v>
+      </c>
+      <c r="AR31">
+        <v>18.22688307303817</v>
+      </c>
+      <c r="AS31">
+        <v>165.3953749442742</v>
+      </c>
+      <c r="AT31">
+        <v>1.615341188315676</v>
+      </c>
+      <c r="AU31">
+        <v>110.3634758243928</v>
+      </c>
+      <c r="AV31">
+        <v>64.00100215467228</v>
+      </c>
+      <c r="AW31">
+        <v>10.85250972452844</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:53">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N32">
-        <v>32.515745858151902</v>
+        <v>32.5157458581519</v>
       </c>
       <c r="O32">
         <v>1.5</v>
@@ -2527,51 +5607,150 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S32">
+        <v>173.4506568134361</v>
+      </c>
+      <c r="T32">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U32">
+        <v>358.9005846999999</v>
+      </c>
+      <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32">
+        <v>173.4506568134361</v>
+      </c>
+      <c r="X32">
+        <v>155.4506568134361</v>
+      </c>
+      <c r="Y32">
+        <v>18</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AA32">
+        <v>438</v>
+      </c>
+      <c r="AB32">
+        <v>6.551840485376133</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.08541949149948994</v>
+      </c>
+      <c r="AF32">
+        <v>0.08541949149948994</v>
+      </c>
+      <c r="AG32">
+        <v>0.07655500591472439</v>
+      </c>
+      <c r="AI32">
+        <v>46.8594443394604</v>
+      </c>
+      <c r="AJ32">
+        <v>123.4467710355457</v>
+      </c>
+      <c r="AL32">
+        <v>44.92399403874814</v>
+      </c>
+      <c r="AM32">
+        <v>1604.434665871833</v>
+      </c>
+      <c r="AN32">
+        <v>426.1400164238571</v>
+      </c>
+      <c r="AO32">
+        <v>2030.57468229569</v>
+      </c>
+      <c r="AP32">
+        <v>1159.767033577094</v>
+      </c>
+      <c r="AQ32">
+        <v>960.7158741813533</v>
+      </c>
+      <c r="AR32">
+        <v>56.13966591702595</v>
+      </c>
+      <c r="AS32">
+        <v>132.3703995078033</v>
+      </c>
+      <c r="AT32">
+        <v>8.923628472257631</v>
+      </c>
+      <c r="AU32">
+        <v>78.09907389910066</v>
+      </c>
+      <c r="AV32">
+        <v>87.60836522071958</v>
+      </c>
+      <c r="AW32">
+        <v>14.85555856156995</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:53">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N33">
-        <v>32.713871692217602</v>
+        <v>32.7138716922176</v>
       </c>
       <c r="O33">
         <v>1.5</v>
@@ -2583,51 +5762,150 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S33">
+        <v>178.3272010264681</v>
+      </c>
+      <c r="T33">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U33">
+        <v>384.1080982000003</v>
+      </c>
+      <c r="V33" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33">
+        <v>178.3272010264681</v>
+      </c>
+      <c r="X33">
+        <v>160.3272010264681</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>18</v>
+      </c>
+      <c r="AA33">
+        <v>438</v>
+      </c>
+      <c r="AB33">
+        <v>6.551840485376133</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.08782105015948405</v>
+      </c>
+      <c r="AF33">
+        <v>0.08782105015948405</v>
+      </c>
+      <c r="AG33">
+        <v>0.07895656457471852</v>
+      </c>
+      <c r="AI33">
+        <v>49.87633988976329</v>
+      </c>
+      <c r="AJ33">
+        <v>122.3830278857063</v>
+      </c>
+      <c r="AL33">
+        <v>44.92399403874814</v>
+      </c>
+      <c r="AM33">
+        <v>1604.434665871833</v>
+      </c>
+      <c r="AN33">
+        <v>426.140016423857</v>
+      </c>
+      <c r="AO33">
+        <v>2030.57468229569</v>
+      </c>
+      <c r="AP33">
+        <v>1159.767033577094</v>
+      </c>
+      <c r="AQ33">
+        <v>960.3738404898659</v>
+      </c>
+      <c r="AR33">
+        <v>57.29508235656254</v>
+      </c>
+      <c r="AS33">
+        <v>131.5294214583376</v>
+      </c>
+      <c r="AT33">
+        <v>9.146393572631295</v>
+      </c>
+      <c r="AU33">
+        <v>83.12723314960549</v>
+      </c>
+      <c r="AV33">
+        <v>70.36811292476706</v>
+      </c>
+      <c r="AW33">
+        <v>11.93216674900144</v>
+      </c>
+      <c r="AX33">
+        <v>-7.0652264</v>
+      </c>
+      <c r="AY33">
+        <v>5.525893000000003</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:53">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N34">
-        <v>32.911997526283201</v>
+        <v>32.9119975262832</v>
       </c>
       <c r="O34">
         <v>1.5</v>
@@ -2639,51 +5917,150 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S34">
+        <v>178.5111173641873</v>
+      </c>
+      <c r="T34">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U34">
+        <v>416.3911897999997</v>
+      </c>
+      <c r="V34" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34">
+        <v>178.5111173641873</v>
+      </c>
+      <c r="X34">
+        <v>160.5111173641873</v>
+      </c>
+      <c r="Y34">
+        <v>18</v>
+      </c>
+      <c r="Z34">
+        <v>18</v>
+      </c>
+      <c r="AA34">
+        <v>438</v>
+      </c>
+      <c r="AB34">
+        <v>6.551840485376133</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.08791162369973485</v>
+      </c>
+      <c r="AF34">
+        <v>0.08791162369973485</v>
+      </c>
+      <c r="AG34">
+        <v>0.07904713811496931</v>
+      </c>
+      <c r="AI34">
+        <v>49.4553206266878</v>
+      </c>
+      <c r="AJ34">
+        <v>122.0390179510855</v>
+      </c>
+      <c r="AL34">
+        <v>44.92399403874814</v>
+      </c>
+      <c r="AM34">
+        <v>1604.434665871833</v>
+      </c>
+      <c r="AN34">
+        <v>426.1400164238572</v>
+      </c>
+      <c r="AO34">
+        <v>2030.57468229569</v>
+      </c>
+      <c r="AP34">
+        <v>1159.767033577094</v>
+      </c>
+      <c r="AQ34">
+        <v>963.2427229085689</v>
+      </c>
+      <c r="AR34">
+        <v>62.55235743429377</v>
+      </c>
+      <c r="AS34">
+        <v>131.952455666321</v>
+      </c>
+      <c r="AT34">
+        <v>9.913437715235444</v>
+      </c>
+      <c r="AU34">
+        <v>82.42553437781299</v>
+      </c>
+      <c r="AV34">
+        <v>64.77185299979109</v>
+      </c>
+      <c r="AW34">
+        <v>10.98322121358599</v>
+      </c>
+      <c r="AX34">
+        <v>-7.902872593917003</v>
+      </c>
+      <c r="AY34">
+        <v>10.91444625453044</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:53">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N35">
-        <v>33.110123360348901</v>
+        <v>33.1101233603489</v>
       </c>
       <c r="O35">
         <v>1.5</v>
@@ -2695,48 +6072,147 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S35">
+        <v>196.3235168606867</v>
+      </c>
+      <c r="T35">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U35">
+        <v>367.2784941</v>
+      </c>
+      <c r="V35" t="s">
+        <v>110</v>
+      </c>
+      <c r="W35">
+        <v>196.3235168606867</v>
+      </c>
+      <c r="X35">
+        <v>178.3235168606867</v>
+      </c>
+      <c r="Y35">
+        <v>18</v>
+      </c>
+      <c r="Z35">
+        <v>18</v>
+      </c>
+      <c r="AA35">
+        <v>438</v>
+      </c>
+      <c r="AB35">
+        <v>6.551840485376133</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0.09668372139789062</v>
+      </c>
+      <c r="AF35">
+        <v>0.09668372139789062</v>
+      </c>
+      <c r="AG35">
+        <v>0.08781923581312509</v>
+      </c>
+      <c r="AI35">
+        <v>58.70966563834622</v>
+      </c>
+      <c r="AJ35">
+        <v>119.6138512223405</v>
+      </c>
+      <c r="AL35">
+        <v>44.92399403874814</v>
+      </c>
+      <c r="AM35">
+        <v>1604.434665871833</v>
+      </c>
+      <c r="AN35">
+        <v>426.1400164238572</v>
+      </c>
+      <c r="AO35">
+        <v>2030.57468229569</v>
+      </c>
+      <c r="AP35">
+        <v>1159.767033577094</v>
+      </c>
+      <c r="AQ35">
+        <v>965.896517533977</v>
+      </c>
+      <c r="AR35">
+        <v>73.96040741918736</v>
+      </c>
+      <c r="AS35">
+        <v>131.3024736137344</v>
+      </c>
+      <c r="AT35">
+        <v>11.68862239139392</v>
+      </c>
+      <c r="AU35">
+        <v>97.84944273057704</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>-13.0012</v>
+      </c>
+      <c r="AY35">
+        <v>13.6808</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:53">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>33.3082491944146</v>
@@ -2751,51 +6227,150 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S36">
+        <v>222.381349247027</v>
+      </c>
+      <c r="T36">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U36">
+        <v>167.7871724999995</v>
+      </c>
+      <c r="V36" t="s">
+        <v>111</v>
+      </c>
+      <c r="W36">
+        <v>222.381349247027</v>
+      </c>
+      <c r="X36">
+        <v>204.381349247027</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>18</v>
+      </c>
+      <c r="AA36">
+        <v>438</v>
+      </c>
+      <c r="AB36">
+        <v>6.551840485376133</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0.1095164591511657</v>
+      </c>
+      <c r="AF36">
+        <v>0.1095164591511657</v>
+      </c>
+      <c r="AG36">
+        <v>0.1006519735664001</v>
+      </c>
+      <c r="AI36">
+        <v>61.47127119795294</v>
+      </c>
+      <c r="AJ36">
+        <v>158.6166613235798</v>
+      </c>
+      <c r="AL36">
+        <v>44.92399403874814</v>
+      </c>
+      <c r="AM36">
+        <v>1604.434665871833</v>
+      </c>
+      <c r="AN36">
+        <v>426.1400164238564</v>
+      </c>
+      <c r="AO36">
+        <v>2030.574682295689</v>
+      </c>
+      <c r="AP36">
+        <v>1159.767033577094</v>
+      </c>
+      <c r="AQ36">
+        <v>907.2938811245089</v>
+      </c>
+      <c r="AR36">
+        <v>16.34799808824808</v>
+      </c>
+      <c r="AS36">
+        <v>160.2633329916674</v>
+      </c>
+      <c r="AT36">
+        <v>1.64667166808764</v>
+      </c>
+      <c r="AU36">
+        <v>102.4521186632549</v>
+      </c>
+      <c r="AV36">
+        <v>92.6271521989222</v>
+      </c>
+      <c r="AW36">
+        <v>15.7065832745057</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:53">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N37">
-        <v>33.506375028480299</v>
+        <v>33.5063750284803</v>
       </c>
       <c r="O37">
         <v>1.5</v>
@@ -2807,51 +6382,150 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S37">
+        <v>163.5600918789548</v>
+      </c>
+      <c r="T37">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U37">
+        <v>288.0521475000005</v>
+      </c>
+      <c r="V37" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37">
+        <v>163.5600918789548</v>
+      </c>
+      <c r="X37">
+        <v>145.5600918789548</v>
+      </c>
+      <c r="Y37">
+        <v>18</v>
+      </c>
+      <c r="Z37">
+        <v>18</v>
+      </c>
+      <c r="AA37">
+        <v>438</v>
+      </c>
+      <c r="AB37">
+        <v>6.54675284651866</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0.08231539973977604</v>
+      </c>
+      <c r="AF37">
+        <v>0.08231539973977604</v>
+      </c>
+      <c r="AG37">
+        <v>0.07325648336051338</v>
+      </c>
+      <c r="AI37">
+        <v>42.74440839163618</v>
+      </c>
+      <c r="AJ37">
+        <v>119.0585156646172</v>
+      </c>
+      <c r="AL37">
+        <v>40.2026825633383</v>
+      </c>
+      <c r="AM37">
+        <v>1605.681510581222</v>
+      </c>
+      <c r="AN37">
+        <v>381.3111104352321</v>
+      </c>
+      <c r="AO37">
+        <v>1986.992621016455</v>
+      </c>
+      <c r="AP37">
+        <v>1153.53276255657</v>
+      </c>
+      <c r="AQ37">
+        <v>902.204037642539</v>
+      </c>
+      <c r="AR37">
+        <v>34.74421268932193</v>
+      </c>
+      <c r="AS37">
+        <v>124.5542138316468</v>
+      </c>
+      <c r="AT37">
+        <v>5.495698167029557</v>
+      </c>
+      <c r="AU37">
+        <v>71.24068065272697</v>
+      </c>
+      <c r="AV37">
+        <v>95.78959738941285</v>
+      </c>
+      <c r="AW37">
+        <v>16.24283217729858</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:53">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N38">
-        <v>33.704500862545999</v>
+        <v>33.704500862546</v>
       </c>
       <c r="O38">
         <v>1.5</v>
@@ -2863,51 +6537,150 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S38">
+        <v>169.3534494927721</v>
+      </c>
+      <c r="T38">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U38">
+        <v>390.6856644</v>
+      </c>
+      <c r="V38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38">
+        <v>169.3534494927721</v>
+      </c>
+      <c r="X38">
+        <v>151.3534494927721</v>
+      </c>
+      <c r="Y38">
+        <v>18</v>
+      </c>
+      <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>438</v>
+      </c>
+      <c r="AB38">
+        <v>6.54675284651866</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0.08523104097192805</v>
+      </c>
+      <c r="AF38">
+        <v>0.08523104097192805</v>
+      </c>
+      <c r="AG38">
+        <v>0.07617212459266538</v>
+      </c>
+      <c r="AI38">
+        <v>44.10326303234491</v>
+      </c>
+      <c r="AJ38">
+        <v>118.2266362326994</v>
+      </c>
+      <c r="AL38">
+        <v>40.2026825633383</v>
+      </c>
+      <c r="AM38">
+        <v>1605.681510581222</v>
+      </c>
+      <c r="AN38">
+        <v>381.311110435232</v>
+      </c>
+      <c r="AO38">
+        <v>1986.992621016454</v>
+      </c>
+      <c r="AP38">
+        <v>1153.53276255657</v>
+      </c>
+      <c r="AQ38">
+        <v>902.9915074693515</v>
+      </c>
+      <c r="AR38">
+        <v>39.0687393104533</v>
+      </c>
+      <c r="AS38">
+        <v>124.4767782089562</v>
+      </c>
+      <c r="AT38">
+        <v>6.25014197625682</v>
+      </c>
+      <c r="AU38">
+        <v>73.50543838724153</v>
+      </c>
+      <c r="AV38">
+        <v>64.731919469104</v>
+      </c>
+      <c r="AW38">
+        <v>10.97644977227217</v>
+      </c>
+      <c r="AX38">
+        <v>-7.391573499999993</v>
+      </c>
+      <c r="AY38">
+        <v>6.287646300000006</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:53">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N39">
-        <v>33.902626696611698</v>
+        <v>33.9026266966117</v>
       </c>
       <c r="O39">
         <v>1.5</v>
@@ -2919,51 +6692,150 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S39">
+        <v>176.9397421774419</v>
+      </c>
+      <c r="T39">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U39">
+        <v>377.7691602999994</v>
+      </c>
+      <c r="V39" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39">
+        <v>176.9397421774419</v>
+      </c>
+      <c r="X39">
+        <v>158.9397421774419</v>
+      </c>
+      <c r="Y39">
+        <v>18</v>
+      </c>
+      <c r="Z39">
+        <v>18</v>
+      </c>
+      <c r="AA39">
+        <v>438</v>
+      </c>
+      <c r="AB39">
+        <v>6.54675284651866</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0.08907360369763855</v>
+      </c>
+      <c r="AF39">
+        <v>0.08907360369763855</v>
+      </c>
+      <c r="AG39">
+        <v>0.08001218625220326</v>
+      </c>
+      <c r="AI39">
+        <v>51.4703215560437</v>
+      </c>
+      <c r="AJ39">
+        <v>115.5826002993137</v>
+      </c>
+      <c r="AL39">
+        <v>40.2026825633383</v>
+      </c>
+      <c r="AM39">
+        <v>1605.681510581222</v>
+      </c>
+      <c r="AN39">
+        <v>380.7626752638461</v>
+      </c>
+      <c r="AO39">
+        <v>1986.444185845069</v>
+      </c>
+      <c r="AP39">
+        <v>1153.53276255657</v>
+      </c>
+      <c r="AQ39">
+        <v>936.9169048869768</v>
+      </c>
+      <c r="AR39">
+        <v>74.47203113000631</v>
+      </c>
+      <c r="AS39">
+        <v>127.89081671471</v>
+      </c>
+      <c r="AT39">
+        <v>12.30821641539629</v>
+      </c>
+      <c r="AU39">
+        <v>85.78386926007283</v>
+      </c>
+      <c r="AV39">
+        <v>47.84622573282951</v>
+      </c>
+      <c r="AW39">
+        <v>8.113179677915529</v>
+      </c>
+      <c r="AX39">
+        <v>-8.678425915759924</v>
+      </c>
+      <c r="AY39">
+        <v>11.54621179591979</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:53">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N40">
-        <v>34.100752530677298</v>
+        <v>34.1007525306773</v>
       </c>
       <c r="O40">
         <v>1.5</v>
@@ -2975,51 +6847,150 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S40">
+        <v>193.8778184577464</v>
+      </c>
+      <c r="T40">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U40">
+        <v>303.5814006000001</v>
+      </c>
+      <c r="V40" t="s">
+        <v>115</v>
+      </c>
+      <c r="W40">
+        <v>193.8778184577464</v>
+      </c>
+      <c r="X40">
+        <v>175.8778184577464</v>
+      </c>
+      <c r="Y40">
+        <v>18</v>
+      </c>
+      <c r="Z40">
+        <v>18</v>
+      </c>
+      <c r="AA40">
+        <v>438</v>
+      </c>
+      <c r="AB40">
+        <v>6.54675284651866</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0.09760043591421991</v>
+      </c>
+      <c r="AF40">
+        <v>0.09760043591421991</v>
+      </c>
+      <c r="AG40">
+        <v>0.08853901846878462</v>
+      </c>
+      <c r="AI40">
+        <v>61.79517116496641</v>
+      </c>
+      <c r="AJ40">
+        <v>114.08264729278</v>
+      </c>
+      <c r="AL40">
+        <v>40.2026825633383</v>
+      </c>
+      <c r="AM40">
+        <v>1605.681510581222</v>
+      </c>
+      <c r="AN40">
+        <v>380.7626752638461</v>
+      </c>
+      <c r="AO40">
+        <v>1986.444185845069</v>
+      </c>
+      <c r="AP40">
+        <v>1153.53276255657</v>
+      </c>
+      <c r="AQ40">
+        <v>929.2644646447486</v>
+      </c>
+      <c r="AR40">
+        <v>75.16398153300499</v>
+      </c>
+      <c r="AS40">
+        <v>126.3391872793138</v>
+      </c>
+      <c r="AT40">
+        <v>12.25653998653382</v>
+      </c>
+      <c r="AU40">
+        <v>102.9919519416107</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>-12.816</v>
+      </c>
+      <c r="AY40">
+        <v>14.71709999999999</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:53">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N41">
-        <v>34.298878364742997</v>
+        <v>34.298878364743</v>
       </c>
       <c r="O41">
         <v>1.5</v>
@@ -3031,51 +7002,150 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S41">
+        <v>223.9489947056275</v>
+      </c>
+      <c r="T41">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U41">
+        <v>159.2954580000005</v>
+      </c>
+      <c r="V41" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41">
+        <v>223.9489947056275</v>
+      </c>
+      <c r="X41">
+        <v>205.9489947056275</v>
+      </c>
+      <c r="Y41">
+        <v>18</v>
+      </c>
+      <c r="Z41">
+        <v>18</v>
+      </c>
+      <c r="AA41">
+        <v>438</v>
+      </c>
+      <c r="AB41">
+        <v>6.54675284651866</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0.1127172090677551</v>
+      </c>
+      <c r="AF41">
+        <v>0.1127172090677551</v>
+      </c>
+      <c r="AG41">
+        <v>0.103657513283514</v>
+      </c>
+      <c r="AI41">
+        <v>65.64802656670076</v>
+      </c>
+      <c r="AJ41">
+        <v>148.2183436105865</v>
+      </c>
+      <c r="AL41">
+        <v>40.2026825633383</v>
+      </c>
+      <c r="AM41">
+        <v>1605.681510581222</v>
+      </c>
+      <c r="AN41">
+        <v>381.1401696025926</v>
+      </c>
+      <c r="AO41">
+        <v>1986.821680183815</v>
+      </c>
+      <c r="AP41">
+        <v>1153.53276255657</v>
+      </c>
+      <c r="AQ41">
+        <v>857.1451715057278</v>
+      </c>
+      <c r="AR41">
+        <v>9.662737356813082</v>
+      </c>
+      <c r="AS41">
+        <v>149.1590999356394</v>
+      </c>
+      <c r="AT41">
+        <v>0.9407563250528561</v>
+      </c>
+      <c r="AU41">
+        <v>109.4133776111679</v>
+      </c>
+      <c r="AV41">
+        <v>46.69150062826302</v>
+      </c>
+      <c r="AW41">
+        <v>7.917375471659829</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:53">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N42">
-        <v>34.695130032874403</v>
+        <v>34.6951300328744</v>
       </c>
       <c r="O42">
         <v>1.5</v>
@@ -3087,51 +7157,150 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S42">
+        <v>189.2047312845202</v>
+      </c>
+      <c r="T42">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U42">
+        <v>344.7351109000001</v>
+      </c>
+      <c r="V42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42">
+        <v>189.2047312845202</v>
+      </c>
+      <c r="X42">
+        <v>171.2047312845202</v>
+      </c>
+      <c r="Y42">
+        <v>18</v>
+      </c>
+      <c r="Z42">
+        <v>18</v>
+      </c>
+      <c r="AA42">
+        <v>438</v>
+      </c>
+      <c r="AB42">
+        <v>6.430671565224872</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0.09367986419726874</v>
+      </c>
+      <c r="AF42">
+        <v>0.09367986419726874</v>
+      </c>
+      <c r="AG42">
+        <v>0.08476762641070343</v>
+      </c>
+      <c r="AI42">
+        <v>45.84744755454928</v>
+      </c>
+      <c r="AJ42">
+        <v>141.3326135594965</v>
+      </c>
+      <c r="AL42">
+        <v>38.34277198211625</v>
+      </c>
+      <c r="AM42">
+        <v>1634.665974366615</v>
+      </c>
+      <c r="AN42">
+        <v>385.0287904133337</v>
+      </c>
+      <c r="AO42">
+        <v>2019.694764779949</v>
+      </c>
+      <c r="AP42">
+        <v>1030.081656105858</v>
+      </c>
+      <c r="AQ42">
+        <v>1038.588510641855</v>
+      </c>
+      <c r="AR42">
+        <v>15.56152799876042</v>
+      </c>
+      <c r="AS42">
+        <v>144.0523497126758</v>
+      </c>
+      <c r="AT42">
+        <v>2.719736153179329</v>
+      </c>
+      <c r="AU42">
+        <v>80.83861497956914</v>
+      </c>
+      <c r="AV42">
+        <v>94.21204355432958</v>
+      </c>
+      <c r="AW42">
+        <v>15.97532982952545</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:53">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N43">
-        <v>34.893255866940102</v>
+        <v>34.8932558669401</v>
       </c>
       <c r="O43">
         <v>1.5</v>
@@ -3143,51 +7312,150 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S43">
+        <v>187.6201494898189</v>
+      </c>
+      <c r="T43">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U43">
+        <v>345.2952974</v>
+      </c>
+      <c r="V43" t="s">
+        <v>118</v>
+      </c>
+      <c r="W43">
+        <v>187.6201494898189</v>
+      </c>
+      <c r="X43">
+        <v>169.6201494898189</v>
+      </c>
+      <c r="Y43">
+        <v>18</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+      <c r="AA43">
+        <v>438</v>
+      </c>
+      <c r="AB43">
+        <v>6.430671565224872</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0.09289529921134428</v>
+      </c>
+      <c r="AF43">
+        <v>0.09289529921134428</v>
+      </c>
+      <c r="AG43">
+        <v>0.08398306142477896</v>
+      </c>
+      <c r="AI43">
+        <v>47.21677891649176</v>
+      </c>
+      <c r="AJ43">
+        <v>142.133095184668</v>
+      </c>
+      <c r="AL43">
+        <v>38.34277198211625</v>
+      </c>
+      <c r="AM43">
+        <v>1634.665974366615</v>
+      </c>
+      <c r="AN43">
+        <v>385.0287904133339</v>
+      </c>
+      <c r="AO43">
+        <v>2019.694764779949</v>
+      </c>
+      <c r="AP43">
+        <v>1030.081656105858</v>
+      </c>
+      <c r="AQ43">
+        <v>1041.681960004395</v>
+      </c>
+      <c r="AR43">
+        <v>15.24813630571596</v>
+      </c>
+      <c r="AS43">
+        <v>144.7147856792258</v>
+      </c>
+      <c r="AT43">
+        <v>2.581690494557762</v>
+      </c>
+      <c r="AU43">
+        <v>83.37499614855361</v>
+      </c>
+      <c r="AV43">
+        <v>116.353007683334</v>
+      </c>
+      <c r="AW43">
+        <v>19.72972461134082</v>
+      </c>
+      <c r="AX43">
+        <v>-6.3210774</v>
+      </c>
+      <c r="AY43">
+        <v>7.429690699999995</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:53">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N44">
-        <v>35.091381701005801</v>
+        <v>35.0913817010058</v>
       </c>
       <c r="O44">
         <v>1.5</v>
@@ -3199,51 +7467,150 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S44">
+        <v>180.5290908818592</v>
+      </c>
+      <c r="T44">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U44">
+        <v>350.4828679000002</v>
+      </c>
+      <c r="V44" t="s">
+        <v>119</v>
+      </c>
+      <c r="W44">
+        <v>180.5290908818592</v>
+      </c>
+      <c r="X44">
+        <v>162.5290908818592</v>
+      </c>
+      <c r="Y44">
+        <v>18</v>
+      </c>
+      <c r="Z44">
+        <v>18</v>
+      </c>
+      <c r="AA44">
+        <v>438</v>
+      </c>
+      <c r="AB44">
+        <v>6.430671565224872</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0.08938434362953274</v>
+      </c>
+      <c r="AF44">
+        <v>0.08938434362953274</v>
+      </c>
+      <c r="AG44">
+        <v>0.08047210584296742</v>
+      </c>
+      <c r="AI44">
+        <v>46.87466803019351</v>
+      </c>
+      <c r="AJ44">
+        <v>142.778205722069</v>
+      </c>
+      <c r="AL44">
+        <v>38.34277198211625</v>
+      </c>
+      <c r="AM44">
+        <v>1634.665974366615</v>
+      </c>
+      <c r="AN44">
+        <v>385.0287904133336</v>
+      </c>
+      <c r="AO44">
+        <v>2019.694764779949</v>
+      </c>
+      <c r="AP44">
+        <v>1030.081656105858</v>
+      </c>
+      <c r="AQ44">
+        <v>1046.161377545122</v>
+      </c>
+      <c r="AR44">
+        <v>15.25689918738767</v>
+      </c>
+      <c r="AS44">
+        <v>145.369724933718</v>
+      </c>
+      <c r="AT44">
+        <v>2.591519211648991</v>
+      </c>
+      <c r="AU44">
+        <v>82.49519024175721</v>
+      </c>
+      <c r="AV44">
+        <v>159.9583257693853</v>
+      </c>
+      <c r="AW44">
+        <v>27.12378287040326</v>
+      </c>
+      <c r="AX44">
+        <v>-8.113352357806569</v>
+      </c>
+      <c r="AY44">
+        <v>11.60523589830271</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:53">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N45">
-        <v>35.289507535071401</v>
+        <v>35.2895075350714</v>
       </c>
       <c r="O45">
         <v>1.5</v>
@@ -3255,48 +7622,147 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S45">
+        <v>193.3684010208403</v>
+      </c>
+      <c r="T45">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U45">
+        <v>344.4893695000001</v>
+      </c>
+      <c r="V45" t="s">
+        <v>120</v>
+      </c>
+      <c r="W45">
+        <v>193.3684010208403</v>
+      </c>
+      <c r="X45">
+        <v>175.3684010208403</v>
+      </c>
+      <c r="Y45">
+        <v>18</v>
+      </c>
+      <c r="Z45">
+        <v>18</v>
+      </c>
+      <c r="AA45">
+        <v>438</v>
+      </c>
+      <c r="AB45">
+        <v>6.430671565224872</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0.09574139835031374</v>
+      </c>
+      <c r="AF45">
+        <v>0.09574139835031374</v>
+      </c>
+      <c r="AG45">
+        <v>0.08682916056374843</v>
+      </c>
+      <c r="AI45">
+        <v>60.23504496556042</v>
+      </c>
+      <c r="AJ45">
+        <v>138.9889298857642</v>
+      </c>
+      <c r="AL45">
+        <v>38.34277198211625</v>
+      </c>
+      <c r="AM45">
+        <v>1634.665974366615</v>
+      </c>
+      <c r="AN45">
+        <v>385.0287904133335</v>
+      </c>
+      <c r="AO45">
+        <v>2019.694764779949</v>
+      </c>
+      <c r="AP45">
+        <v>1030.081656105858</v>
+      </c>
+      <c r="AQ45">
+        <v>1057.32175097894</v>
+      </c>
+      <c r="AR45">
+        <v>27.56027635287986</v>
+      </c>
+      <c r="AS45">
+        <v>143.6550939097445</v>
+      </c>
+      <c r="AT45">
+        <v>4.666164023980246</v>
+      </c>
+      <c r="AU45">
+        <v>108.0190350839849</v>
+      </c>
+      <c r="AV45">
+        <v>140.6845670614791</v>
+      </c>
+      <c r="AW45">
+        <v>23.8555738304844</v>
+      </c>
+      <c r="AX45">
+        <v>-11.8225</v>
+      </c>
+      <c r="AY45">
+        <v>14.09479999999999</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:53">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N46">
         <v>35.4876333691371</v>
@@ -3311,7 +7777,106 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S46">
+        <v>254.0379813019863</v>
+      </c>
+      <c r="T46">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U46">
+        <v>35.84709800000019</v>
+      </c>
+      <c r="V46" t="s">
+        <v>121</v>
+      </c>
+      <c r="W46">
+        <v>254.0379813019863</v>
+      </c>
+      <c r="X46">
+        <v>236.0379813019863</v>
+      </c>
+      <c r="Y46">
+        <v>18</v>
+      </c>
+      <c r="Z46">
+        <v>18</v>
+      </c>
+      <c r="AA46">
+        <v>438</v>
+      </c>
+      <c r="AB46">
+        <v>6.430671565224872</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0.1257803831212408</v>
+      </c>
+      <c r="AF46">
+        <v>0.1257803831212408</v>
+      </c>
+      <c r="AG46">
+        <v>0.1168681453346755</v>
+      </c>
+      <c r="AI46">
+        <v>59.24234597795256</v>
+      </c>
+      <c r="AJ46">
+        <v>176.7956353240338</v>
+      </c>
+      <c r="AL46">
+        <v>38.34277198211625</v>
+      </c>
+      <c r="AM46">
+        <v>1634.665974366615</v>
+      </c>
+      <c r="AN46">
+        <v>385.0287904133331</v>
+      </c>
+      <c r="AO46">
+        <v>2019.694764779948</v>
+      </c>
+      <c r="AP46">
+        <v>1030.081656105858</v>
+      </c>
+      <c r="AQ46">
+        <v>995.4256100590519</v>
+      </c>
+      <c r="AR46">
+        <v>1.280247641630344E-14</v>
+      </c>
+      <c r="AS46">
+        <v>176.7956353240338</v>
+      </c>
+      <c r="AT46">
+        <v>1.082231770667311E-15</v>
+      </c>
+      <c r="AU46">
+        <v>105.6949467428392</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
